--- a/database/httpsthedfirreportcom.xlsx
+++ b/database/httpsthedfirreportcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,30 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2021/12/13/diavol-ransomware/</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Diavol Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/diavol/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>diavol</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthedfirreportcom.xlsx
+++ b/database/httpsthedfirreportcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,6 +961,78 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/01/24/cobalt-strike-a-defenders-guide-part-2/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Cobalt Strike, a Defender’s Guide – Part 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/02/07/qbot-likes-to-move-it-move-it/</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Qbot Likes to Move It, Move It</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/02/21/qbot-and-zerologon-lead-to-full-domain-compromise/</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Qbot and Zerologon Lead To Full Domain Compromise</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/03/07/2021-year-in-review/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021 Year In Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/qbot/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Qbot</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/page/5/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthedfirreportcom.xlsx
+++ b/database/httpsthedfirreportcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,6 +1033,18 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/uncategorized/</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthedfirreportcom.xlsx
+++ b/database/httpsthedfirreportcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,18 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://translate.google.com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tłumacz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthedfirreportcom.xlsx
+++ b/database/httpsthedfirreportcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1057,414 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="#content"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Skip to content</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The DFIR Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2021/11/01/from-zero-to-domain-admin/"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>From Zero to Domain Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2021/11/15/exchange-exploit-leads-to-domain-wide-ransomware/"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Exchange Exploit Leads to Domain Wide Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2021/11/29/continuing-the-bazar-ransomware-story/"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CONTInuing the Bazar Ransomware Story</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2021/12/13/diavol-ransomware/"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>December 13, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2022/01/24/cobalt-strike-a-defenders-guide-part-2/"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cobalt Strike, a Defender’s Guide – Part 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2022/02/07/qbot-likes-to-move-it-move-it/"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Qbot Likes to Move It, Move It</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2022/02/21/qbot-and-zerologon-lead-to-full-domain-compromise/"</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Qbot and Zerologon Lead To Full Domain Compromise</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2022/03/07/2021-year-in-review/"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021 Year In Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2022/03/21/apt35-automates-initial-access-using-proxyshell/"</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>APT35 Automates Initial Access Using ProxyShell</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/2022/04/04/stolen-images-campaign-ends-in-conti-ransomware/"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Stolen Images Campaign Ends in Conti Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/analysts/"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Analysts</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/adfind/"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adfind</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/apt35/"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>APT35</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/bazar/"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bazar</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/cobaltstrike/"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cobaltstrike</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/conti/"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>conti</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/diavol/"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>diavol</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/exploit/"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/fast-reverse-proxy/"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fast Reverse Proxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/hancitor/"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>hancitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/icedid/"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>icedid</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/plink/"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Plink</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/proxyshell/"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ProxyShell</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/qbot/"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Qbot</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/ransomware/"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/category/uncategorized/"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/contact/"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Contact Us</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/page/2/"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/page/5/"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://thedfirreport.com/services/"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://themespiral.com/"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ThemeSpiral.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/href="https://translate.google.com"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Tłumacz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthedfirreportcom.xlsx
+++ b/database/httpsthedfirreportcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1465,6 +1465,102 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/03/21/apt35-automates-initial-access-using-proxyshell/</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>APT35 Automates Initial Access Using ProxyShell</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/04/04/stolen-images-campaign-ends-in-conti-ransomware/</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Stolen Images Campaign Ends in Conti Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/04/25/quantum-ransomware/</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Quantum Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/2022/05/09/seo-poisoning-a-gootloader-story/</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SEO Poisoning – A Gootloader Story</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/gootloader/</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>gootloader</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/lazagne/</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>lazagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/psexec/</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>psexec</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://thedfirreport.com/category/quantum/</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>quantum</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
